--- a/dev/aina-foundations-timings.xlsx
+++ b/dev/aina-foundations-timings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\aina-foundations-of-analytics\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ADCB4C-A6E5-4D4F-887A-BF2375764973}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCD9D62-A8D4-4547-AD99-D6D764694107}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Section</t>
   </si>
@@ -39,10 +39,43 @@
     <t>Mins</t>
   </si>
   <si>
-    <t>Secs</t>
-  </si>
-  <si>
-    <t>Intro</t>
+    <t>Drill: practice the six acts in groups</t>
+  </si>
+  <si>
+    <t>Analytics presentation in six acts: walkthrough</t>
+  </si>
+  <si>
+    <t>Analytics presentation in six acts: demos</t>
+  </si>
+  <si>
+    <t>chi square demo</t>
+  </si>
+  <si>
+    <t>logistic regression demo</t>
+  </si>
+  <si>
+    <t>Future of analytics &amp; excel demo</t>
+  </si>
+  <si>
+    <t>Next steps for Analytics Systems</t>
+  </si>
+  <si>
+    <t>Breaks</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Intro/demo</t>
+  </si>
+  <si>
+    <t>What is analytics, anyway?</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Paired t-test</t>
   </si>
 </sst>
 </file>
@@ -526,8 +559,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -586,6 +622,17 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AA6CEC19-4C0C-484A-AEFD-D2FD975EABDB}" name="Table1" displayName="Table1" ref="A1:B13" totalsRowCount="1">
+  <autoFilter ref="A1:B12" xr:uid="{996A64FC-F2FF-4A4F-B8CC-0D31F23CFBA3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{14A68EBA-9319-4E22-AC01-8B174F07F1CB}" name="Section" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{F525CB17-777F-4F71-9953-842E2762408F}" name="Mins" totalsRowFunction="sum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -885,31 +932,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78276F94-8270-410C-A907-FB1813EFBEBD}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="37.41796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="B8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <f>SUBTOTAL(109,Table1[Mins])</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>